--- a/Reports/Model_Variations.xlsx
+++ b/Reports/Model_Variations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="30">
   <si>
     <t>Technique</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>Isolation Forest</t>
+  </si>
+  <si>
+    <t>LOF_IF</t>
+  </si>
+  <si>
+    <t>LOF_IF_XGB</t>
   </si>
   <si>
     <t>Cost Optimization</t>
@@ -666,89 +672,100 @@
       <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="3" t="str">
-        <f t="shared" ref="C26:C28" si="6">CONCATENATE("CO_",B26)</f>
-        <v>CO_XGB</v>
+      <c r="C26" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27" s="3" t="str">
+        <f t="shared" ref="C27:C29" si="6">CONCATENATE("CO_",B27)</f>
+        <v>CO_XGB</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3" t="str">
         <f t="shared" si="6"/>
         <v>CO_SVC</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="3" t="str">
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="3" t="str">
         <f t="shared" si="6"/>
         <v>CO_Logistic</v>
       </c>
     </row>
-    <row r="29">
-      <c r="B29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
     <row r="30">
       <c r="B30" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
